--- a/experiment/pract_words.xlsx
+++ b/experiment/pract_words.xlsx
@@ -1,31 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krh2382/monitain/experiment/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052F4102-58EB-AB49-80D8-99A41798FA53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="23780" yWindow="5860" windowWidth="20520" windowHeight="15940" xr2:uid="{EAEF8542-B83A-6149-8222-EB54DA35E555}"/>
+    <workbookView xWindow="23780" yWindow="5860" windowWidth="20520" windowHeight="15940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="252">
   <si>
     <t>flat</t>
   </si>
@@ -79,13 +73,715 @@
   </si>
   <si>
     <t>gun</t>
+  </si>
+  <si>
+    <t>ace</t>
+  </si>
+  <si>
+    <t>ache</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>wound</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>wrap</t>
+  </si>
+  <si>
+    <t>wrath</t>
+  </si>
+  <si>
+    <t>wreck</t>
+  </si>
+  <si>
+    <t>wrist</t>
+  </si>
+  <si>
+    <t>yacht</t>
+  </si>
+  <si>
+    <t>yank</t>
+  </si>
+  <si>
+    <t>yarn</t>
+  </si>
+  <si>
+    <t>yawn</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>yet</t>
+  </si>
+  <si>
+    <t>yield</t>
+  </si>
+  <si>
+    <t>young</t>
+  </si>
+  <si>
+    <t>zoo</t>
+  </si>
+  <si>
+    <t>which</t>
+  </si>
+  <si>
+    <t>while</t>
+  </si>
+  <si>
+    <t>whip</t>
+  </si>
+  <si>
+    <t>whisk</t>
+  </si>
+  <si>
+    <t>why</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>wig</t>
+  </si>
+  <si>
+    <t>wine</t>
+  </si>
+  <si>
+    <t>wink</t>
+  </si>
+  <si>
+    <t>warm</t>
+  </si>
+  <si>
+    <t>wasp</t>
+  </si>
+  <si>
+    <t>wax</t>
+  </si>
+  <si>
+    <t>wealth</t>
+  </si>
+  <si>
+    <t>weed</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>when</t>
+  </si>
+  <si>
+    <t>vine</t>
+  </si>
+  <si>
+    <t>wand</t>
+  </si>
+  <si>
+    <t>urge</t>
+  </si>
+  <si>
+    <t>vase</t>
+  </si>
+  <si>
+    <t>vault</t>
+  </si>
+  <si>
+    <t>vein</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>twice</t>
+  </si>
+  <si>
+    <t>twin</t>
+  </si>
+  <si>
+    <t>trap</t>
+  </si>
+  <si>
+    <t>tray</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>tribe</t>
+  </si>
+  <si>
+    <t>trim</t>
+  </si>
+  <si>
+    <t>troll</t>
+  </si>
+  <si>
+    <t>trunk</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>toy</t>
+  </si>
+  <si>
+    <t>trail</t>
+  </si>
+  <si>
+    <t>trait</t>
+  </si>
+  <si>
+    <t>thread</t>
+  </si>
+  <si>
+    <t>thrill</t>
+  </si>
+  <si>
+    <t>throne</t>
+  </si>
+  <si>
+    <t>tide</t>
+  </si>
+  <si>
+    <t>tile</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>tire</t>
+  </si>
+  <si>
+    <t>toll</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>their</t>
+  </si>
+  <si>
+    <t>they</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>tank</t>
+  </si>
+  <si>
+    <t>sway</t>
+  </si>
+  <si>
+    <t>swear</t>
+  </si>
+  <si>
+    <t>swing</t>
+  </si>
+  <si>
+    <t>sync</t>
+  </si>
+  <si>
+    <t>sun</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>stream</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>strike</t>
+  </si>
+  <si>
+    <t>stroll</t>
+  </si>
+  <si>
+    <t>stuff</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>stem</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>spend</t>
+  </si>
+  <si>
+    <t>spill</t>
+  </si>
+  <si>
+    <t>spoil</t>
+  </si>
+  <si>
+    <t>spoon</t>
+  </si>
+  <si>
+    <t>soak</t>
+  </si>
+  <si>
+    <t>sour</t>
+  </si>
+  <si>
+    <t>smell</t>
+  </si>
+  <si>
+    <t>sniff</t>
+  </si>
+  <si>
+    <t>silk</t>
+  </si>
+  <si>
+    <t>six</t>
+  </si>
+  <si>
+    <t>skirt</t>
+  </si>
+  <si>
+    <t>shave</t>
+  </si>
+  <si>
+    <t>shine</t>
+  </si>
+  <si>
+    <t>seed</t>
+  </si>
+  <si>
+    <t>scent</t>
+  </si>
+  <si>
+    <t>screen</t>
+  </si>
+  <si>
+    <t>scar</t>
+  </si>
+  <si>
+    <t>roast</t>
+  </si>
+  <si>
+    <t>rope</t>
+  </si>
+  <si>
+    <t>rose</t>
+  </si>
+  <si>
+    <t>rude</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>rug</t>
+  </si>
+  <si>
+    <t>rhyme</t>
+  </si>
+  <si>
+    <t>ride</t>
+  </si>
+  <si>
+    <t>riot</t>
+  </si>
+  <si>
+    <t>rage</t>
+  </si>
+  <si>
+    <t>ranch</t>
+  </si>
+  <si>
+    <t>pulse</t>
+  </si>
+  <si>
+    <t>push</t>
+  </si>
+  <si>
+    <t>quest</t>
+  </si>
+  <si>
+    <t>quiet</t>
+  </si>
+  <si>
+    <t>quit</t>
+  </si>
+  <si>
+    <t>prompt</t>
+  </si>
+  <si>
+    <t>puff</t>
+  </si>
+  <si>
+    <t>prep</t>
+  </si>
+  <si>
+    <t>press</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>print</t>
+  </si>
+  <si>
+    <t>probe</t>
+  </si>
+  <si>
+    <t>pork</t>
+  </si>
+  <si>
+    <t>pray</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>pond</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>pig</t>
+  </si>
+  <si>
+    <t>pill</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>pearl</t>
+  </si>
+  <si>
+    <t>owl</t>
+  </si>
+  <si>
+    <t>pack</t>
+  </si>
+  <si>
+    <t>odd</t>
+  </si>
+  <si>
+    <t>north</t>
+  </si>
+  <si>
+    <t>nose</t>
+  </si>
+  <si>
+    <t>oath</t>
+  </si>
+  <si>
+    <t>nest</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>mute</t>
+  </si>
+  <si>
+    <t>mouth</t>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>mask</t>
+  </si>
+  <si>
+    <t>math</t>
+  </si>
+  <si>
+    <t>lodge</t>
+  </si>
+  <si>
+    <t>loop</t>
+  </si>
+  <si>
+    <t>liar</t>
+  </si>
+  <si>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>lamb</t>
+  </si>
+  <si>
+    <t>lamp</t>
+  </si>
+  <si>
+    <t>lane</t>
+  </si>
+  <si>
+    <t>leaf</t>
+  </si>
+  <si>
+    <t>jump</t>
+  </si>
+  <si>
+    <t>just</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>kiss</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>joy</t>
+  </si>
+  <si>
+    <t>iron</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>hole</t>
+  </si>
+  <si>
+    <t>hood</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>huge</t>
+  </si>
+  <si>
+    <t>hedge</t>
+  </si>
+  <si>
+    <t>here</t>
+  </si>
+  <si>
+    <t>hike</t>
+  </si>
+  <si>
+    <t>groom</t>
+  </si>
+  <si>
+    <t>groove</t>
+  </si>
+  <si>
+    <t>gum</t>
+  </si>
+  <si>
+    <t>gym</t>
+  </si>
+  <si>
+    <t>golf</t>
+  </si>
+  <si>
+    <t>grab</t>
+  </si>
+  <si>
+    <t>grand</t>
+  </si>
+  <si>
+    <t>gray</t>
+  </si>
+  <si>
+    <t>grid</t>
+  </si>
+  <si>
+    <t>grill</t>
+  </si>
+  <si>
+    <t>germ</t>
+  </si>
+  <si>
+    <t>girl</t>
+  </si>
+  <si>
+    <t>glass</t>
+  </si>
+  <si>
+    <t>glue</t>
+  </si>
+  <si>
+    <t>goat</t>
+  </si>
+  <si>
+    <t>frown</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>flip</t>
+  </si>
+  <si>
+    <t>flour</t>
+  </si>
+  <si>
+    <t>foam</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>feet</t>
+  </si>
+  <si>
+    <t>eye</t>
+  </si>
+  <si>
+    <t>elf</t>
+  </si>
+  <si>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>ear</t>
+  </si>
+  <si>
+    <t>duck</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>diet</t>
+  </si>
+  <si>
+    <t>crab</t>
+  </si>
+  <si>
+    <t>craft</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>creek</t>
+  </si>
+  <si>
+    <t>corn</t>
+  </si>
+  <si>
+    <t>coin</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>climb</t>
+  </si>
+  <si>
+    <t>clock</t>
+  </si>
+  <si>
+    <t>cloud</t>
+  </si>
+  <si>
+    <t>chill</t>
+  </si>
+  <si>
+    <t>church</t>
+  </si>
+  <si>
+    <t>chance</t>
+  </si>
+  <si>
+    <t>cheer</t>
+  </si>
+  <si>
+    <t>cap</t>
+  </si>
+  <si>
+    <t>bus</t>
+  </si>
+  <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>boy</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>bride</t>
+  </si>
+  <si>
+    <t>blush</t>
+  </si>
+  <si>
+    <t>bold</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>barn</t>
+  </si>
+  <si>
+    <t>bed</t>
+  </si>
+  <si>
+    <t>bake</t>
+  </si>
+  <si>
+    <t>ball</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>ant</t>
+  </si>
+  <si>
+    <t>add</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -112,6 +808,22 @@
       <sz val="12"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -130,8 +842,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -141,10 +855,3322 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="90">
+  <dxfs count="421">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1047,14 +5073,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1101,7 +5119,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1153,7 +5171,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1347,311 +5365,2253 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E389595E-F142-EE4A-9497-D4142035327C}">
-  <dimension ref="A1:A18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A260"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
+      <selection activeCell="A260" sqref="A260"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1">
       <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
     </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" t="s">
+        <v>251</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="89" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="331" priority="329"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="88" priority="88"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="89"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="330" priority="330"/>
+    <cfRule type="duplicateValues" dxfId="329" priority="331"/>
+    <cfRule type="duplicateValues" dxfId="328" priority="332"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="327" priority="328"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="326" priority="324"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="325" priority="325"/>
+    <cfRule type="duplicateValues" dxfId="324" priority="326"/>
+    <cfRule type="duplicateValues" dxfId="323" priority="327"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="322" priority="323"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="321" priority="319"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="320" priority="320"/>
+    <cfRule type="duplicateValues" dxfId="319" priority="321"/>
+    <cfRule type="duplicateValues" dxfId="318" priority="322"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="317" priority="318"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="duplicateValues" dxfId="316" priority="314"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="duplicateValues" dxfId="315" priority="315"/>
+    <cfRule type="duplicateValues" dxfId="314" priority="316"/>
+    <cfRule type="duplicateValues" dxfId="313" priority="317"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="duplicateValues" dxfId="312" priority="313"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="duplicateValues" dxfId="311" priority="309"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="duplicateValues" dxfId="310" priority="310"/>
+    <cfRule type="duplicateValues" dxfId="309" priority="311"/>
+    <cfRule type="duplicateValues" dxfId="308" priority="312"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="duplicateValues" dxfId="307" priority="308"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="306" priority="304"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="305" priority="305"/>
+    <cfRule type="duplicateValues" dxfId="304" priority="306"/>
+    <cfRule type="duplicateValues" dxfId="303" priority="307"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="302" priority="303"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="duplicateValues" dxfId="301" priority="299"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="duplicateValues" dxfId="300" priority="300"/>
+    <cfRule type="duplicateValues" dxfId="299" priority="301"/>
+    <cfRule type="duplicateValues" dxfId="298" priority="302"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="duplicateValues" dxfId="297" priority="298"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="296" priority="294"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="295" priority="295"/>
+    <cfRule type="duplicateValues" dxfId="294" priority="296"/>
+    <cfRule type="duplicateValues" dxfId="293" priority="297"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="292" priority="293"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="duplicateValues" dxfId="291" priority="289"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="duplicateValues" dxfId="290" priority="290"/>
+    <cfRule type="duplicateValues" dxfId="289" priority="291"/>
+    <cfRule type="duplicateValues" dxfId="288" priority="292"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="duplicateValues" dxfId="287" priority="288"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="duplicateValues" dxfId="286" priority="284"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="duplicateValues" dxfId="285" priority="285"/>
+    <cfRule type="duplicateValues" dxfId="284" priority="286"/>
+    <cfRule type="duplicateValues" dxfId="283" priority="287"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="duplicateValues" dxfId="282" priority="283"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="duplicateValues" dxfId="281" priority="279"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="duplicateValues" dxfId="280" priority="280"/>
+    <cfRule type="duplicateValues" dxfId="279" priority="281"/>
+    <cfRule type="duplicateValues" dxfId="278" priority="282"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="duplicateValues" dxfId="277" priority="278"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="duplicateValues" dxfId="276" priority="274"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="duplicateValues" dxfId="275" priority="275"/>
+    <cfRule type="duplicateValues" dxfId="274" priority="276"/>
+    <cfRule type="duplicateValues" dxfId="273" priority="277"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="duplicateValues" dxfId="272" priority="273"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="duplicateValues" dxfId="271" priority="269"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="duplicateValues" dxfId="270" priority="270"/>
+    <cfRule type="duplicateValues" dxfId="269" priority="271"/>
+    <cfRule type="duplicateValues" dxfId="268" priority="272"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="duplicateValues" dxfId="267" priority="268"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="duplicateValues" dxfId="266" priority="264"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="duplicateValues" dxfId="265" priority="265"/>
+    <cfRule type="duplicateValues" dxfId="264" priority="266"/>
+    <cfRule type="duplicateValues" dxfId="263" priority="267"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="duplicateValues" dxfId="262" priority="263"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="duplicateValues" dxfId="261" priority="259"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="duplicateValues" dxfId="260" priority="260"/>
+    <cfRule type="duplicateValues" dxfId="259" priority="261"/>
+    <cfRule type="duplicateValues" dxfId="258" priority="262"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="duplicateValues" dxfId="257" priority="258"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="duplicateValues" dxfId="256" priority="254"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="duplicateValues" dxfId="255" priority="255"/>
+    <cfRule type="duplicateValues" dxfId="254" priority="256"/>
+    <cfRule type="duplicateValues" dxfId="253" priority="257"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="duplicateValues" dxfId="252" priority="253"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="duplicateValues" dxfId="251" priority="249"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="duplicateValues" dxfId="250" priority="250"/>
+    <cfRule type="duplicateValues" dxfId="249" priority="251"/>
+    <cfRule type="duplicateValues" dxfId="248" priority="252"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="duplicateValues" dxfId="247" priority="248"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18">
+    <cfRule type="duplicateValues" dxfId="246" priority="244"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18">
+    <cfRule type="duplicateValues" dxfId="245" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="244" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="243" priority="247"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18">
+    <cfRule type="duplicateValues" dxfId="242" priority="243"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19">
+    <cfRule type="duplicateValues" dxfId="241" priority="242"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20">
+    <cfRule type="duplicateValues" dxfId="240" priority="241"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21">
+    <cfRule type="duplicateValues" dxfId="239" priority="240"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22">
+    <cfRule type="duplicateValues" dxfId="238" priority="239"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="duplicateValues" dxfId="237" priority="238"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24">
+    <cfRule type="duplicateValues" dxfId="236" priority="237"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25">
+    <cfRule type="duplicateValues" dxfId="235" priority="236"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26">
+    <cfRule type="duplicateValues" dxfId="234" priority="235"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27">
+    <cfRule type="duplicateValues" dxfId="233" priority="234"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28">
+    <cfRule type="duplicateValues" dxfId="232" priority="233"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="duplicateValues" dxfId="231" priority="232"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30">
+    <cfRule type="duplicateValues" dxfId="230" priority="231"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31">
+    <cfRule type="duplicateValues" dxfId="229" priority="230"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32">
+    <cfRule type="duplicateValues" dxfId="228" priority="229"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33">
+    <cfRule type="duplicateValues" dxfId="227" priority="228"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34">
+    <cfRule type="duplicateValues" dxfId="226" priority="227"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35">
+    <cfRule type="duplicateValues" dxfId="225" priority="226"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="duplicateValues" dxfId="224" priority="225"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="duplicateValues" dxfId="223" priority="224"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38">
+    <cfRule type="duplicateValues" dxfId="222" priority="223"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39">
+    <cfRule type="duplicateValues" dxfId="221" priority="222"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="duplicateValues" dxfId="220" priority="221"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41">
+    <cfRule type="duplicateValues" dxfId="219" priority="220"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42">
+    <cfRule type="duplicateValues" dxfId="218" priority="219"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43">
+    <cfRule type="duplicateValues" dxfId="217" priority="218"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44">
+    <cfRule type="duplicateValues" dxfId="216" priority="217"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45">
+    <cfRule type="duplicateValues" dxfId="215" priority="216"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46">
+    <cfRule type="duplicateValues" dxfId="214" priority="215"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47">
+    <cfRule type="duplicateValues" dxfId="213" priority="214"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48">
+    <cfRule type="duplicateValues" dxfId="212" priority="213"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49">
+    <cfRule type="duplicateValues" dxfId="211" priority="212"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50">
+    <cfRule type="duplicateValues" dxfId="210" priority="211"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51">
+    <cfRule type="duplicateValues" dxfId="209" priority="210"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52">
+    <cfRule type="duplicateValues" dxfId="208" priority="209"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53">
+    <cfRule type="duplicateValues" dxfId="207" priority="208"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="duplicateValues" dxfId="206" priority="207"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55">
+    <cfRule type="duplicateValues" dxfId="205" priority="206"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56">
+    <cfRule type="duplicateValues" dxfId="204" priority="205"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57">
+    <cfRule type="duplicateValues" dxfId="203" priority="204"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58">
+    <cfRule type="duplicateValues" dxfId="202" priority="203"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59">
+    <cfRule type="duplicateValues" dxfId="201" priority="202"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60">
+    <cfRule type="duplicateValues" dxfId="200" priority="201"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61">
+    <cfRule type="duplicateValues" dxfId="199" priority="200"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62">
+    <cfRule type="duplicateValues" dxfId="198" priority="199"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63">
+    <cfRule type="duplicateValues" dxfId="197" priority="198"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64">
+    <cfRule type="duplicateValues" dxfId="196" priority="197"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65">
+    <cfRule type="duplicateValues" dxfId="195" priority="196"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66">
+    <cfRule type="duplicateValues" dxfId="194" priority="195"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67">
+    <cfRule type="duplicateValues" dxfId="193" priority="194"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68">
+    <cfRule type="duplicateValues" dxfId="192" priority="193"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69">
+    <cfRule type="duplicateValues" dxfId="191" priority="192"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70">
+    <cfRule type="duplicateValues" dxfId="190" priority="191"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71">
+    <cfRule type="duplicateValues" dxfId="189" priority="190"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72">
+    <cfRule type="duplicateValues" dxfId="188" priority="189"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A73">
+    <cfRule type="duplicateValues" dxfId="187" priority="188"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A74">
+    <cfRule type="duplicateValues" dxfId="186" priority="187"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A75">
+    <cfRule type="duplicateValues" dxfId="185" priority="186"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A76">
+    <cfRule type="duplicateValues" dxfId="184" priority="185"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A77">
+    <cfRule type="duplicateValues" dxfId="183" priority="184"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A78">
+    <cfRule type="duplicateValues" dxfId="182" priority="183"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A79">
+    <cfRule type="duplicateValues" dxfId="181" priority="182"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A80">
+    <cfRule type="duplicateValues" dxfId="180" priority="181"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81">
+    <cfRule type="duplicateValues" dxfId="179" priority="180"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82">
+    <cfRule type="duplicateValues" dxfId="178" priority="179"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83">
+    <cfRule type="duplicateValues" dxfId="177" priority="178"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A84">
+    <cfRule type="duplicateValues" dxfId="176" priority="177"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A85">
+    <cfRule type="duplicateValues" dxfId="175" priority="176"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A86">
+    <cfRule type="duplicateValues" dxfId="174" priority="175"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87">
+    <cfRule type="duplicateValues" dxfId="173" priority="174"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A88">
+    <cfRule type="duplicateValues" dxfId="172" priority="173"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A89">
+    <cfRule type="duplicateValues" dxfId="171" priority="172"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A90">
+    <cfRule type="duplicateValues" dxfId="170" priority="171"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A91">
+    <cfRule type="duplicateValues" dxfId="169" priority="170"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A92">
+    <cfRule type="duplicateValues" dxfId="168" priority="169"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A93">
+    <cfRule type="duplicateValues" dxfId="167" priority="168"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A94">
+    <cfRule type="duplicateValues" dxfId="166" priority="167"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95">
+    <cfRule type="duplicateValues" dxfId="165" priority="166"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A96">
+    <cfRule type="duplicateValues" dxfId="164" priority="165"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A97">
+    <cfRule type="duplicateValues" dxfId="163" priority="164"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A98">
+    <cfRule type="duplicateValues" dxfId="162" priority="163"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A99">
+    <cfRule type="duplicateValues" dxfId="161" priority="162"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A100">
+    <cfRule type="duplicateValues" dxfId="160" priority="161"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A101">
+    <cfRule type="duplicateValues" dxfId="159" priority="160"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A102">
+    <cfRule type="duplicateValues" dxfId="158" priority="159"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A103">
+    <cfRule type="duplicateValues" dxfId="157" priority="158"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A104">
+    <cfRule type="duplicateValues" dxfId="156" priority="157"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A105">
+    <cfRule type="duplicateValues" dxfId="155" priority="156"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A106">
+    <cfRule type="duplicateValues" dxfId="154" priority="155"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A107">
+    <cfRule type="duplicateValues" dxfId="153" priority="154"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A108">
+    <cfRule type="duplicateValues" dxfId="152" priority="153"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A109">
+    <cfRule type="duplicateValues" dxfId="151" priority="152"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A110">
+    <cfRule type="duplicateValues" dxfId="150" priority="151"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A111">
+    <cfRule type="duplicateValues" dxfId="149" priority="150"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A112">
+    <cfRule type="duplicateValues" dxfId="148" priority="149"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A113">
+    <cfRule type="duplicateValues" dxfId="147" priority="148"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A114">
+    <cfRule type="duplicateValues" dxfId="146" priority="147"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A115">
+    <cfRule type="duplicateValues" dxfId="145" priority="146"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A116">
+    <cfRule type="duplicateValues" dxfId="144" priority="145"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A117">
+    <cfRule type="duplicateValues" dxfId="143" priority="144"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A118">
+    <cfRule type="duplicateValues" dxfId="142" priority="143"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A119">
+    <cfRule type="duplicateValues" dxfId="141" priority="142"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A120">
+    <cfRule type="duplicateValues" dxfId="140" priority="141"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A121">
+    <cfRule type="duplicateValues" dxfId="139" priority="140"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A122">
+    <cfRule type="duplicateValues" dxfId="138" priority="139"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A123">
+    <cfRule type="duplicateValues" dxfId="137" priority="138"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124">
+    <cfRule type="duplicateValues" dxfId="136" priority="137"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A125">
+    <cfRule type="duplicateValues" dxfId="135" priority="136"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A126">
+    <cfRule type="duplicateValues" dxfId="134" priority="135"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A127">
+    <cfRule type="duplicateValues" dxfId="133" priority="134"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A128">
+    <cfRule type="duplicateValues" dxfId="132" priority="133"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A129">
+    <cfRule type="duplicateValues" dxfId="131" priority="132"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A130">
+    <cfRule type="duplicateValues" dxfId="130" priority="131"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A131">
+    <cfRule type="duplicateValues" dxfId="129" priority="130"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A132">
+    <cfRule type="duplicateValues" dxfId="128" priority="129"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A133">
+    <cfRule type="duplicateValues" dxfId="127" priority="128"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A134">
+    <cfRule type="duplicateValues" dxfId="126" priority="127"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A135">
+    <cfRule type="duplicateValues" dxfId="125" priority="126"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A136">
+    <cfRule type="duplicateValues" dxfId="124" priority="125"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A137">
+    <cfRule type="duplicateValues" dxfId="123" priority="124"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A138">
+    <cfRule type="duplicateValues" dxfId="122" priority="123"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A139">
+    <cfRule type="duplicateValues" dxfId="121" priority="122"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A140">
+    <cfRule type="duplicateValues" dxfId="120" priority="121"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A141">
+    <cfRule type="duplicateValues" dxfId="119" priority="120"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A142">
+    <cfRule type="duplicateValues" dxfId="118" priority="119"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A143">
+    <cfRule type="duplicateValues" dxfId="117" priority="118"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A144">
+    <cfRule type="duplicateValues" dxfId="116" priority="117"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A145">
+    <cfRule type="duplicateValues" dxfId="115" priority="116"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A146">
+    <cfRule type="duplicateValues" dxfId="114" priority="115"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A147">
+    <cfRule type="duplicateValues" dxfId="113" priority="114"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A148">
+    <cfRule type="duplicateValues" dxfId="112" priority="113"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A149">
+    <cfRule type="duplicateValues" dxfId="111" priority="112"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A150">
+    <cfRule type="duplicateValues" dxfId="110" priority="111"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A151">
+    <cfRule type="duplicateValues" dxfId="109" priority="110"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A152">
+    <cfRule type="duplicateValues" dxfId="108" priority="109"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A153">
+    <cfRule type="duplicateValues" dxfId="107" priority="108"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A154">
+    <cfRule type="duplicateValues" dxfId="106" priority="107"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A155">
+    <cfRule type="duplicateValues" dxfId="105" priority="106"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A156">
+    <cfRule type="duplicateValues" dxfId="104" priority="105"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A157">
+    <cfRule type="duplicateValues" dxfId="103" priority="104"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A158">
+    <cfRule type="duplicateValues" dxfId="102" priority="103"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A159">
+    <cfRule type="duplicateValues" dxfId="101" priority="102"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A160">
+    <cfRule type="duplicateValues" dxfId="100" priority="101"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A161">
+    <cfRule type="duplicateValues" dxfId="99" priority="100"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A162">
+    <cfRule type="duplicateValues" dxfId="98" priority="99"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A163">
+    <cfRule type="duplicateValues" dxfId="97" priority="98"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A164">
+    <cfRule type="duplicateValues" dxfId="96" priority="97"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A165">
+    <cfRule type="duplicateValues" dxfId="95" priority="96"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A166">
+    <cfRule type="duplicateValues" dxfId="94" priority="95"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A167">
+    <cfRule type="duplicateValues" dxfId="93" priority="94"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A168">
+    <cfRule type="duplicateValues" dxfId="92" priority="93"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A169">
+    <cfRule type="duplicateValues" dxfId="91" priority="92"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A170">
+    <cfRule type="duplicateValues" dxfId="90" priority="91"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A171">
+    <cfRule type="duplicateValues" dxfId="89" priority="90"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A172">
+    <cfRule type="duplicateValues" dxfId="88" priority="89"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A173">
+    <cfRule type="duplicateValues" dxfId="87" priority="88"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A174">
+    <cfRule type="duplicateValues" dxfId="86" priority="87"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A175">
     <cfRule type="duplicateValues" dxfId="85" priority="86"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="84" priority="82"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="83" priority="83"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="84"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="85"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2">
+  <conditionalFormatting sqref="A176">
+    <cfRule type="duplicateValues" dxfId="84" priority="85"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A177">
+    <cfRule type="duplicateValues" dxfId="83" priority="84"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A178">
+    <cfRule type="duplicateValues" dxfId="82" priority="83"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A179">
+    <cfRule type="duplicateValues" dxfId="81" priority="82"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A180">
     <cfRule type="duplicateValues" dxfId="80" priority="81"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="79" priority="77"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="78" priority="78"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="79"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="80"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
+  <conditionalFormatting sqref="A181">
+    <cfRule type="duplicateValues" dxfId="79" priority="80"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A182">
+    <cfRule type="duplicateValues" dxfId="78" priority="79"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A183">
+    <cfRule type="duplicateValues" dxfId="77" priority="78"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A184">
+    <cfRule type="duplicateValues" dxfId="76" priority="77"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A185">
     <cfRule type="duplicateValues" dxfId="75" priority="76"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="74" priority="72"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="73" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="72" priority="74"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="75"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
+  <conditionalFormatting sqref="A186">
+    <cfRule type="duplicateValues" dxfId="74" priority="75"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A187">
+    <cfRule type="duplicateValues" dxfId="73" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A188">
+    <cfRule type="duplicateValues" dxfId="72" priority="73"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A189">
+    <cfRule type="duplicateValues" dxfId="71" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A190">
     <cfRule type="duplicateValues" dxfId="70" priority="71"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="69" priority="67"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="68" priority="68"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="70"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
+  <conditionalFormatting sqref="A191">
+    <cfRule type="duplicateValues" dxfId="69" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A192">
+    <cfRule type="duplicateValues" dxfId="68" priority="69"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A193">
+    <cfRule type="duplicateValues" dxfId="67" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A194">
+    <cfRule type="duplicateValues" dxfId="66" priority="67"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A195">
     <cfRule type="duplicateValues" dxfId="65" priority="66"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="64" priority="62"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="63" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="64"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="65"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
+  <conditionalFormatting sqref="A196">
+    <cfRule type="duplicateValues" dxfId="64" priority="65"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A197">
+    <cfRule type="duplicateValues" dxfId="63" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A198">
+    <cfRule type="duplicateValues" dxfId="62" priority="63"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A199">
+    <cfRule type="duplicateValues" dxfId="61" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A200">
     <cfRule type="duplicateValues" dxfId="60" priority="61"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="59" priority="57"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="58" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="60"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
+  <conditionalFormatting sqref="A201">
+    <cfRule type="duplicateValues" dxfId="59" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A202">
+    <cfRule type="duplicateValues" dxfId="58" priority="59"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A203">
+    <cfRule type="duplicateValues" dxfId="57" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A204">
+    <cfRule type="duplicateValues" dxfId="56" priority="57"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A205">
     <cfRule type="duplicateValues" dxfId="55" priority="56"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="54" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="53" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="55"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
+  <conditionalFormatting sqref="A206">
+    <cfRule type="duplicateValues" dxfId="54" priority="55"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A207">
+    <cfRule type="duplicateValues" dxfId="53" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A208">
+    <cfRule type="duplicateValues" dxfId="52" priority="53"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A209">
+    <cfRule type="duplicateValues" dxfId="51" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A210">
     <cfRule type="duplicateValues" dxfId="50" priority="51"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="49" priority="47"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="48" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="50"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
+  <conditionalFormatting sqref="A211">
+    <cfRule type="duplicateValues" dxfId="49" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A212">
+    <cfRule type="duplicateValues" dxfId="48" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A213">
+    <cfRule type="duplicateValues" dxfId="47" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A214">
+    <cfRule type="duplicateValues" dxfId="46" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A215">
     <cfRule type="duplicateValues" dxfId="45" priority="46"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="44" priority="42"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="43" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="45"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
+  <conditionalFormatting sqref="A216">
+    <cfRule type="duplicateValues" dxfId="44" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A217">
+    <cfRule type="duplicateValues" dxfId="43" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A218">
+    <cfRule type="duplicateValues" dxfId="42" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A219">
+    <cfRule type="duplicateValues" dxfId="41" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A220">
     <cfRule type="duplicateValues" dxfId="40" priority="41"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="39" priority="37"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="38" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="40"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
+  <conditionalFormatting sqref="A221">
+    <cfRule type="duplicateValues" dxfId="39" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A222">
+    <cfRule type="duplicateValues" dxfId="38" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A223">
+    <cfRule type="duplicateValues" dxfId="37" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A224">
+    <cfRule type="duplicateValues" dxfId="36" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A225">
     <cfRule type="duplicateValues" dxfId="35" priority="36"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="34" priority="32"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="33" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="35"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
+  <conditionalFormatting sqref="A226">
+    <cfRule type="duplicateValues" dxfId="34" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A227">
+    <cfRule type="duplicateValues" dxfId="33" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A228">
+    <cfRule type="duplicateValues" dxfId="32" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A229">
+    <cfRule type="duplicateValues" dxfId="31" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A230">
     <cfRule type="duplicateValues" dxfId="30" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="29" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="28" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
+  <conditionalFormatting sqref="A231">
+    <cfRule type="duplicateValues" dxfId="29" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A232">
+    <cfRule type="duplicateValues" dxfId="28" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A233">
+    <cfRule type="duplicateValues" dxfId="27" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A234">
+    <cfRule type="duplicateValues" dxfId="26" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A235">
     <cfRule type="duplicateValues" dxfId="25" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="24" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="23" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="25"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
+  <conditionalFormatting sqref="A236">
+    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A237">
+    <cfRule type="duplicateValues" dxfId="23" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A238">
+    <cfRule type="duplicateValues" dxfId="22" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A239">
+    <cfRule type="duplicateValues" dxfId="21" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A240">
     <cfRule type="duplicateValues" dxfId="20" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="19" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="18" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15">
+  <conditionalFormatting sqref="A241">
+    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A242">
+    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A243">
+    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A244">
+    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A245">
     <cfRule type="duplicateValues" dxfId="15" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16">
+  <conditionalFormatting sqref="A246">
+    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A247">
+    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A248">
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A249">
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A250">
     <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
+  <conditionalFormatting sqref="A251">
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A252">
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A253">
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A254">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A255">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
+  <conditionalFormatting sqref="A256">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A257">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A258">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A259">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A260">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>